--- a/doc/tcm/pentic.xlsx
+++ b/doc/tcm/pentic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21075" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21072" windowHeight="7236"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>行</t>
   </si>
@@ -45,9 +45,6 @@
     <t>臭</t>
   </si>
   <si>
-    <t>窍</t>
-  </si>
-  <si>
     <t>畜</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>肉</t>
   </si>
   <si>
-    <t>毛发</t>
-  </si>
-  <si>
     <t>骨</t>
   </si>
   <si>
@@ -289,18 +283,172 @@
   </si>
   <si>
     <t>恐</t>
+  </si>
+  <si>
+    <t>黍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏</t>
+  </si>
+  <si>
+    <t>枣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -335,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -348,7 +496,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -634,15 +782,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="3.21875" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" customWidth="1"/>
+    <col min="6" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1"/>
+    <col min="10" max="10" width="2.5546875" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="2.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,279 +835,389 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -953,8 +1227,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -965,8 +1240,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>